--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WordClockV2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,9 +23,51 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Part #</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Source Link</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -50,17 +92,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -71,6 +149,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H38" totalsRowShown="0">
+  <autoFilter ref="A1:H38"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Part #"/>
+    <tableColumn id="2" name="Part Name"/>
+    <tableColumn id="3" name="Description"/>
+    <tableColumn id="4" name="Source"/>
+    <tableColumn id="5" name="Source Link"/>
+    <tableColumn id="6" name="Quantity"/>
+    <tableColumn id="7" name="Unit Cost" dataCellStyle="Currency"/>
+    <tableColumn id="8" name="Cost" dataDxfId="0" dataCellStyle="Currency">
+      <calculatedColumnFormula>PRODUCT(F2, G2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +433,349 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H38" si="0">PRODUCT(F2, G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3">
+        <f>SUM(H2, H100)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H16" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H29" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H33" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H38" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>